--- a/data/trans_orig/P14B23-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2005</v>
+        <v>1941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15055</v>
+        <v>13566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01374255279039503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004586030449678411</v>
+        <v>0.0044383639946216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03443343122941069</v>
+        <v>0.03102933635087773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>7104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2518</v>
+        <v>2654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14777</v>
+        <v>17003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02259135367682431</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008007033226736442</v>
+        <v>0.008438875112664852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04699232808481255</v>
+        <v>0.05407157001423853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -785,19 +785,19 @@
         <v>13112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6664</v>
+        <v>6088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25137</v>
+        <v>24580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01744439198600803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008866137590426921</v>
+        <v>0.008098699570614282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03344148656291288</v>
+        <v>0.03270122989433876</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>431203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422156</v>
+        <v>423645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435206</v>
+        <v>435270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.986257447209605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9655665687705891</v>
+        <v>0.9689706636491222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9954139695503216</v>
+        <v>0.9955616360053784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>278</v>
@@ -835,19 +835,19 @@
         <v>307350</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299677</v>
+        <v>297451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311936</v>
+        <v>311800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9774086463231757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9530076719151874</v>
+        <v>0.9459284299857614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9919929667732635</v>
+        <v>0.9915611248873352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -856,19 +856,19 @@
         <v>738553</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726528</v>
+        <v>727085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745001</v>
+        <v>745577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.982555608013992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9665585134370871</v>
+        <v>0.9672987701056612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9911338624095731</v>
+        <v>0.9919013004293857</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>8210</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3774</v>
+        <v>3980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16582</v>
+        <v>17157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0196035131494239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009011487927008784</v>
+        <v>0.009504518087077852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03959554225419779</v>
+        <v>0.0409666708281629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -981,19 +981,19 @@
         <v>10943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5272</v>
+        <v>5830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20052</v>
+        <v>20588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03237409228582754</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01559844197962727</v>
+        <v>0.01724688798918723</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05932211754983194</v>
+        <v>0.06090826327307282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1002,19 +1002,19 @@
         <v>19153</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11731</v>
+        <v>11168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31189</v>
+        <v>30358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02530720174911591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01550069312925317</v>
+        <v>0.01475730694312708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04121104285517082</v>
+        <v>0.04011278535916248</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>410587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402215</v>
+        <v>401640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415023</v>
+        <v>414817</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9803964868505761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9604044577458016</v>
+        <v>0.9590333291718379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9909885120729908</v>
+        <v>0.9904954819129222</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -1052,19 +1052,19 @@
         <v>327068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317959</v>
+        <v>317423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332739</v>
+        <v>332181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9676259077141725</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9406778824501684</v>
+        <v>0.9390917367269261</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9844015580203727</v>
+        <v>0.9827531120108126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1073,19 +1073,19 @@
         <v>737655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725619</v>
+        <v>726450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745077</v>
+        <v>745640</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9746927982508841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9587889571448296</v>
+        <v>0.9598872146408373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9844993068707468</v>
+        <v>0.985242693056873</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>26834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17433</v>
+        <v>17353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38727</v>
+        <v>40503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04270514316888811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02774395359801428</v>
+        <v>0.02761558396260326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06163130322683949</v>
+        <v>0.06445756461100909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1198,19 +1198,19 @@
         <v>22349</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15038</v>
+        <v>14358</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32548</v>
+        <v>32932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08624802504326194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0580343440457318</v>
+        <v>0.05540769173684903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1256086900893598</v>
+        <v>0.1270910223238531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1219,19 +1219,19 @@
         <v>49183</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36087</v>
+        <v>36674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65049</v>
+        <v>65388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05541857933314666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0406618873816641</v>
+        <v>0.04132364695846977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07329593650815766</v>
+        <v>0.07367771716840417</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>601530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589637</v>
+        <v>587861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610931</v>
+        <v>611011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9572948568311119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9383686967731606</v>
+        <v>0.935542435388991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9722560464019857</v>
+        <v>0.9723844160373968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>221</v>
@@ -1269,19 +1269,19 @@
         <v>236776</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226577</v>
+        <v>226193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>244087</v>
+        <v>244767</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9137519749567381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8743913099106404</v>
+        <v>0.8729089776761469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9419656559542682</v>
+        <v>0.9445923082631511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>787</v>
@@ -1290,19 +1290,19 @@
         <v>838306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>822440</v>
+        <v>822101</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>851402</v>
+        <v>850815</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9445814206668534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9267040634918423</v>
+        <v>0.9263222828315958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9593381126183359</v>
+        <v>0.9586763530415302</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>33371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23114</v>
+        <v>22181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48159</v>
+        <v>46434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02881970147397769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01996168986398552</v>
+        <v>0.01915632078067326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04159164538400351</v>
+        <v>0.04010139200739248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1415,19 +1415,19 @@
         <v>52364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39413</v>
+        <v>39536</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68887</v>
+        <v>67790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06902502699972293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05195350637365084</v>
+        <v>0.05211535755695473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09080515310922843</v>
+        <v>0.08935925616899791</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1436,19 +1436,19 @@
         <v>85735</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68851</v>
+        <v>68550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106043</v>
+        <v>105438</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04473427128638149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03592456902916011</v>
+        <v>0.03576751010055218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05533060580261583</v>
+        <v>0.05501482738692001</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1124540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1109752</v>
+        <v>1111477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134797</v>
+        <v>1135730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9711802985260223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584083546159973</v>
+        <v>0.9598986079926075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9800383101360146</v>
+        <v>0.9808436792193267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>656</v>
@@ -1486,19 +1486,19 @@
         <v>706264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>689741</v>
+        <v>690838</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719215</v>
+        <v>719092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9309749730002771</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9091948468907717</v>
+        <v>0.9106407438310018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9480464936263492</v>
+        <v>0.9478846424430449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1707</v>
@@ -1507,19 +1507,19 @@
         <v>1830804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1810496</v>
+        <v>1811101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1847688</v>
+        <v>1847989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9552657287136185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9446693941973842</v>
+        <v>0.9449851726130799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9640754309708399</v>
+        <v>0.9642324898994479</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>8724</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4005</v>
+        <v>3877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15532</v>
+        <v>15984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01708612790602841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007843034477941149</v>
+        <v>0.007593869428336103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03041944050272203</v>
+        <v>0.03130376428258305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1632,19 +1632,19 @@
         <v>85242</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67523</v>
+        <v>68276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101459</v>
+        <v>102951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1122769809413519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08893820133878397</v>
+        <v>0.08993071876481214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1336372397684927</v>
+        <v>0.1356025402458016</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -1653,19 +1653,19 @@
         <v>93966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76585</v>
+        <v>76261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113391</v>
+        <v>112676</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07400018368856515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06031217315063602</v>
+        <v>0.06005714811012856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08929790782191112</v>
+        <v>0.08873505854498968</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>501872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495064</v>
+        <v>494612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506591</v>
+        <v>506719</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9829138720939716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695805594972779</v>
+        <v>0.9686962357174169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9921569655220588</v>
+        <v>0.9924061305716639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>620</v>
@@ -1703,19 +1703,19 @@
         <v>673967</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>657750</v>
+        <v>656258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>691686</v>
+        <v>690933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.887723019058648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8663627602315073</v>
+        <v>0.8643974597541986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9110617986612161</v>
+        <v>0.9100692812351879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1098</v>
@@ -1724,19 +1724,19 @@
         <v>1175840</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1156415</v>
+        <v>1157130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1193221</v>
+        <v>1193545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9259998163114349</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9107020921780893</v>
+        <v>0.9112649414550102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.939687826849365</v>
+        <v>0.9399428518898713</v>
       </c>
     </row>
     <row r="18">
@@ -1841,19 +1841,19 @@
         <v>106992</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89083</v>
+        <v>87078</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128516</v>
+        <v>127064</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09644576029345468</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08030148106051231</v>
+        <v>0.07849422693209601</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1158481808958891</v>
+        <v>0.1145386278440551</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1862,19 +1862,19 @@
         <v>106992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87860</v>
+        <v>86983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130839</v>
+        <v>128024</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07774280310595243</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06384124912038151</v>
+        <v>0.06320353286579913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09507005685591825</v>
+        <v>0.09302507754214215</v>
       </c>
     </row>
     <row r="20">
@@ -1904,19 +1904,19 @@
         <v>1002359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>980835</v>
+        <v>982287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1020268</v>
+        <v>1022273</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9035542397065454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8841518191041113</v>
+        <v>0.8854613721559449</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9196985189394877</v>
+        <v>0.9215057730679042</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1208</v>
@@ -1925,19 +1925,19 @@
         <v>1269241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1245394</v>
+        <v>1248209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1288373</v>
+        <v>1289250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9222571968940476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9049299431440819</v>
+        <v>0.9069749224578583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9361587508796185</v>
+        <v>0.9367964671342009</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>83147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65998</v>
+        <v>66727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105941</v>
+        <v>105821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02431381237536843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01929913633581974</v>
+        <v>0.01951218720719813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03097906294941224</v>
+        <v>0.03094391732506784</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>268</v>
@@ -2050,19 +2050,19 @@
         <v>284994</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>251523</v>
+        <v>253137</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>316871</v>
+        <v>322137</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08053457331961873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07107613224656385</v>
+        <v>0.07153231912447079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08954254283419093</v>
+        <v>0.09103047923782498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>344</v>
@@ -2071,19 +2071,19 @@
         <v>368141</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334330</v>
+        <v>334160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>408612</v>
+        <v>411570</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05290498942475873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04804597224781915</v>
+        <v>0.04802154892184654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05872098763621285</v>
+        <v>0.05914609784808252</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>3336614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3313820</v>
+        <v>3313940</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3353763</v>
+        <v>3353034</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9756861876246316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9690209370505878</v>
+        <v>0.9690560826749327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9807008636641804</v>
+        <v>0.9804878127928019</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3013</v>
@@ -2121,19 +2121,19 @@
         <v>3253785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3221908</v>
+        <v>3216642</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3287256</v>
+        <v>3285642</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9194654266803812</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9104574571658088</v>
+        <v>0.908969520762175</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9289238677534362</v>
+        <v>0.9284676808755291</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6140</v>
@@ -2142,19 +2142,19 @@
         <v>6590399</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6549928</v>
+        <v>6546970</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6624210</v>
+        <v>6624380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9470950105752413</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9412790123637874</v>
+        <v>0.9408539021519176</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.951954027752181</v>
+        <v>0.9519784510781535</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         <v>3893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9941</v>
+        <v>9767</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009071617856996603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002344415869643051</v>
+        <v>0.002337377086853492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02316715739278429</v>
+        <v>0.02276198668392937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2509,19 +2509,19 @@
         <v>10004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4941</v>
+        <v>4821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18358</v>
+        <v>18293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02882490919928651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01423807926518014</v>
+        <v>0.01389190735536505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05289523678117326</v>
+        <v>0.05271048924451087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2530,19 +2530,19 @@
         <v>13896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7916</v>
+        <v>7596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23957</v>
+        <v>22712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01790432276193043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01019965407173073</v>
+        <v>0.009786954792926463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03086639049607759</v>
+        <v>0.02926208410237758</v>
       </c>
     </row>
     <row r="5">
@@ -2559,19 +2559,19 @@
         <v>425199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419151</v>
+        <v>419325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428086</v>
+        <v>428089</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9909283821430034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9768328426072159</v>
+        <v>0.9772380133160704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976555841303569</v>
+        <v>0.9976626229131464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -2580,19 +2580,19 @@
         <v>337051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>328697</v>
+        <v>328762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342114</v>
+        <v>342234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9711750908007135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.947104763218826</v>
+        <v>0.9472895107554888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9857619207348198</v>
+        <v>0.9861080926446349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>715</v>
@@ -2601,19 +2601,19 @@
         <v>762251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752190</v>
+        <v>753435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768231</v>
+        <v>768551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9820956772380696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9691336095039226</v>
+        <v>0.9707379158976225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9898003459282694</v>
+        <v>0.9902130452070738</v>
       </c>
     </row>
     <row r="6">
@@ -2705,19 +2705,19 @@
         <v>4983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10907</v>
+        <v>12222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01320928137207449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004971904845186296</v>
+        <v>0.004986640518946462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02891368773399935</v>
+        <v>0.0323994567414377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2726,19 +2726,19 @@
         <v>8860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3947</v>
+        <v>3888</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17856</v>
+        <v>16690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02380101045203136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0106027937457241</v>
+        <v>0.01044337950611934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04796571776690386</v>
+        <v>0.04483152149017903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2747,19 +2747,19 @@
         <v>13843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7756</v>
+        <v>7817</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22777</v>
+        <v>24060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01847014356968156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01034790121798541</v>
+        <v>0.01042954511455003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03038965481909473</v>
+        <v>0.0321019617430738</v>
       </c>
     </row>
     <row r="8">
@@ -2776,19 +2776,19 @@
         <v>372244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366320</v>
+        <v>365005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375351</v>
+        <v>375346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9867907186279256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9710863122660008</v>
+        <v>0.9676005432585624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950280951548137</v>
+        <v>0.9950133594810535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -2797,19 +2797,19 @@
         <v>363413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354417</v>
+        <v>355583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368326</v>
+        <v>368385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9761989895479687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9520342822330961</v>
+        <v>0.9551684785098208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893972062542759</v>
+        <v>0.9895566204938806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>693</v>
@@ -2818,19 +2818,19 @@
         <v>735657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>726723</v>
+        <v>725440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>741744</v>
+        <v>741683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9815298564303184</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9696103451809054</v>
+        <v>0.9678980382569263</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.989652098782015</v>
+        <v>0.9895704548854503</v>
       </c>
     </row>
     <row r="9">
@@ -2922,19 +2922,19 @@
         <v>7281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3064</v>
+        <v>2788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14714</v>
+        <v>13728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01395004868990072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0058703106510021</v>
+        <v>0.005342512636629075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02819179890063174</v>
+        <v>0.02630399368793566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2943,19 +2943,19 @@
         <v>15182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8688</v>
+        <v>8663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24651</v>
+        <v>24314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09138943495099591</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05230106620294493</v>
+        <v>0.05215052738470054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1483924808751855</v>
+        <v>0.1463584767220046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2964,19 +2964,19 @@
         <v>22463</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14568</v>
+        <v>14594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34376</v>
+        <v>35188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.032647382467867</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02117324025322928</v>
+        <v>0.0212112018498577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0499628212882489</v>
+        <v>0.05114268517437038</v>
       </c>
     </row>
     <row r="11">
@@ -2993,19 +2993,19 @@
         <v>514633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507200</v>
+        <v>508186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518850</v>
+        <v>519126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9860499513100993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9718082010993686</v>
+        <v>0.9736960063120647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.994129689348998</v>
+        <v>0.9946574873633709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -3014,19 +3014,19 @@
         <v>150941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141472</v>
+        <v>141809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157435</v>
+        <v>157460</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9086105650490041</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8516075191248145</v>
+        <v>0.8536415232779955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9476989337970552</v>
+        <v>0.9478494726152995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -3035,19 +3035,19 @@
         <v>665573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653660</v>
+        <v>652848</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>673468</v>
+        <v>673442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.967352617532133</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.950037178711751</v>
+        <v>0.9488573148256296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9788267597467706</v>
+        <v>0.9787887981501422</v>
       </c>
     </row>
     <row r="12">
@@ -3139,19 +3139,19 @@
         <v>30624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22147</v>
+        <v>20794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43325</v>
+        <v>43004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02663800937270434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01926461431234153</v>
+        <v>0.01808712464978552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03768539236581314</v>
+        <v>0.0374066140125804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -3160,19 +3160,19 @@
         <v>41080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29720</v>
+        <v>30608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55852</v>
+        <v>56199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04974066584921096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03598625180821174</v>
+        <v>0.03706126343328852</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06762752862999848</v>
+        <v>0.06804758624989582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -3181,19 +3181,19 @@
         <v>71704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55962</v>
+        <v>56293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89756</v>
+        <v>88851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03629621682360117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02832783604016522</v>
+        <v>0.02849513255180375</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0454340884499817</v>
+        <v>0.04497615896490852</v>
       </c>
     </row>
     <row r="14">
@@ -3210,19 +3210,19 @@
         <v>1119014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1106313</v>
+        <v>1106634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1127491</v>
+        <v>1128844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9733619906272957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9623146076341871</v>
+        <v>0.9625933859874197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9807353856876586</v>
+        <v>0.9819128753502145</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>760</v>
@@ -3231,19 +3231,19 @@
         <v>784796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770024</v>
+        <v>769677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>796156</v>
+        <v>795268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.950259334150789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9323724713700015</v>
+        <v>0.9319524137501041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9640137481917882</v>
+        <v>0.9629387365667115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1833</v>
@@ -3252,19 +3252,19 @@
         <v>1903810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885758</v>
+        <v>1886663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1919552</v>
+        <v>1919221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9637037831763988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9545659115500185</v>
+        <v>0.9550238410350913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716721639598348</v>
+        <v>0.9715048674481962</v>
       </c>
     </row>
     <row r="15">
@@ -3356,19 +3356,19 @@
         <v>19159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12190</v>
+        <v>12031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28457</v>
+        <v>29012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03086709051517493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0196395733980288</v>
+        <v>0.01938308162225969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04584638423040214</v>
+        <v>0.0467404460746889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -3377,19 +3377,19 @@
         <v>71748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55590</v>
+        <v>57407</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88830</v>
+        <v>91578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09718781317038314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07529998535991247</v>
+        <v>0.07776126954186939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.12032669297138</v>
+        <v>0.1240482983446494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -3398,19 +3398,19 @@
         <v>90908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74175</v>
+        <v>72490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112681</v>
+        <v>111941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06689555646121267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05458228994941303</v>
+        <v>0.05334293042209818</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08291777639439445</v>
+        <v>0.08237333534447817</v>
       </c>
     </row>
     <row r="17">
@@ -3427,19 +3427,19 @@
         <v>601547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592249</v>
+        <v>591694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608516</v>
+        <v>608675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9691329094848251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9541536157695979</v>
+        <v>0.953259553925311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9803604266019712</v>
+        <v>0.9806169183777402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>634</v>
@@ -3448,19 +3448,19 @@
         <v>666496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>649414</v>
+        <v>646666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>682654</v>
+        <v>680837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9028121868296168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.87967330702862</v>
+        <v>0.8759517016553513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9247000146400876</v>
+        <v>0.9222387304581307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1212</v>
@@ -3469,19 +3469,19 @@
         <v>1268042</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1246269</v>
+        <v>1247009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1284775</v>
+        <v>1286460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9331044435387873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9170822236056055</v>
+        <v>0.9176266646555218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9454177100505869</v>
+        <v>0.9466570695779019</v>
       </c>
     </row>
     <row r="18">
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003313336107214264</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -3594,19 +3594,19 @@
         <v>91043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72783</v>
+        <v>74109</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111395</v>
+        <v>112366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08414086830433962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06726592165177747</v>
+        <v>0.06849131573131423</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1029500403480876</v>
+        <v>0.1038482050978655</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -3615,19 +3615,19 @@
         <v>91994</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74445</v>
+        <v>74703</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111721</v>
+        <v>113798</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06718955206427171</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05437223075038466</v>
+        <v>0.05456092523953373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08159763047688365</v>
+        <v>0.08311479412275651</v>
       </c>
     </row>
     <row r="20">
@@ -3644,7 +3644,7 @@
         <v>286194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282316</v>
+        <v>283100</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3653,7 +3653,7 @@
         <v>0.9966866638927857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9831821820640815</v>
+        <v>0.9859117892081081</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3665,19 +3665,19 @@
         <v>990982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>970630</v>
+        <v>969659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1009242</v>
+        <v>1007916</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9158591316956604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8970499596519124</v>
+        <v>0.8961517949021343</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9327340783482224</v>
+        <v>0.9315086842686857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1181</v>
@@ -3686,19 +3686,19 @@
         <v>1277176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1257449</v>
+        <v>1255372</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1294725</v>
+        <v>1294467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9328104479357283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9184023695231172</v>
+        <v>0.9168852058772435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9456277692496156</v>
+        <v>0.9454390747604663</v>
       </c>
     </row>
     <row r="21">
@@ -3790,19 +3790,19 @@
         <v>66891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52455</v>
+        <v>52465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85426</v>
+        <v>85047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0197568039917298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01549303553342751</v>
+        <v>0.01549595672694255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0252313182423945</v>
+        <v>0.02511940246079157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -3811,19 +3811,19 @@
         <v>237917</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205939</v>
+        <v>206847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>270132</v>
+        <v>268459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06736802245260114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0583132603830831</v>
+        <v>0.05857049076442741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07649005276478901</v>
+        <v>0.07601641188615645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>281</v>
@@ -3832,19 +3832,19 @@
         <v>304808</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274157</v>
+        <v>271071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344755</v>
+        <v>340546</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04406443037002074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03963336072211653</v>
+        <v>0.03918735267156079</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04983946006754676</v>
+        <v>0.04923086799043722</v>
       </c>
     </row>
     <row r="23">
@@ -3861,19 +3861,19 @@
         <v>3318831</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3300296</v>
+        <v>3300675</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3333267</v>
+        <v>3333257</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9802431960082703</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9747686817576056</v>
+        <v>0.9748805975392084</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9845069644665726</v>
+        <v>0.9845040432730575</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3111</v>
@@ -3882,19 +3882,19 @@
         <v>3293679</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3261464</v>
+        <v>3263137</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3325657</v>
+        <v>3324749</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9326319775473989</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9235099472352112</v>
+        <v>0.9239835881138436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.941686739616917</v>
+        <v>0.9414295092355726</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6269</v>
@@ -3903,19 +3903,19 @@
         <v>6612510</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6572563</v>
+        <v>6576772</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6643161</v>
+        <v>6646247</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9559355696299793</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9501605399324533</v>
+        <v>0.9507691320095627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9603666392778839</v>
+        <v>0.9608126473284392</v>
       </c>
     </row>
     <row r="24">
@@ -4249,19 +4249,19 @@
         <v>10890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5456</v>
+        <v>5525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21197</v>
+        <v>20891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01977817371033837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009908880668095916</v>
+        <v>0.01003504453848983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03849591332018788</v>
+        <v>0.03794083672716859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -4270,19 +4270,19 @@
         <v>25862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17702</v>
+        <v>18464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35847</v>
+        <v>35782</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05295171955548386</v>
+        <v>0.05295171955548385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03624482072301426</v>
+        <v>0.03780512276356751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07339469224041824</v>
+        <v>0.07326278270641375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4291,19 +4291,19 @@
         <v>36752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25941</v>
+        <v>26643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49889</v>
+        <v>48937</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03537188528280615</v>
+        <v>0.03537188528280614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02496653357625439</v>
+        <v>0.0256417904872812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04801522556228726</v>
+        <v>0.04709908887645394</v>
       </c>
     </row>
     <row r="5">
@@ -4320,19 +4320,19 @@
         <v>539728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>529421</v>
+        <v>529727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>545162</v>
+        <v>545093</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9802218262896616</v>
+        <v>0.9802218262896618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9615040866798119</v>
+        <v>0.9620591632728318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900911193319039</v>
+        <v>0.9899649554615101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -4341,19 +4341,19 @@
         <v>462549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>452564</v>
+        <v>452629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470709</v>
+        <v>469947</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9470482804445163</v>
+        <v>0.9470482804445162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9266053077595821</v>
+        <v>0.9267372172935862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9637551792769857</v>
+        <v>0.9621948772364324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1195</v>
@@ -4362,19 +4362,19 @@
         <v>1002277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>989140</v>
+        <v>990092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013088</v>
+        <v>1012386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.964628114717194</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9519847744377133</v>
+        <v>0.952900911123546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9750334664237459</v>
+        <v>0.9743582095127187</v>
       </c>
     </row>
     <row r="6">
@@ -4466,19 +4466,19 @@
         <v>12146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6492</v>
+        <v>6699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19906</v>
+        <v>19802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02513659724857054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01343535309222143</v>
+        <v>0.0138641238719735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04119413915626143</v>
+        <v>0.04097991484179279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -4487,19 +4487,19 @@
         <v>29674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21118</v>
+        <v>21685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39661</v>
+        <v>39816</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07012867360114654</v>
+        <v>0.07012867360114655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04990677957311682</v>
+        <v>0.05124807694840578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09372926197017584</v>
+        <v>0.09409518284553406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -4508,19 +4508,19 @@
         <v>41821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30972</v>
+        <v>31772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53579</v>
+        <v>54316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04614169522762765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03417208250853736</v>
+        <v>0.03505501731951054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05911479249918533</v>
+        <v>0.05992842027604604</v>
       </c>
     </row>
     <row r="8">
@@ -4537,19 +4537,19 @@
         <v>471066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463306</v>
+        <v>463410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476720</v>
+        <v>476513</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9748634027514295</v>
+        <v>0.9748634027514294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9588058608437386</v>
+        <v>0.9590200851582072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865646469077785</v>
+        <v>0.9861358761280264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>548</v>
@@ -4558,19 +4558,19 @@
         <v>393469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383482</v>
+        <v>383327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402025</v>
+        <v>401458</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9298713263988534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9062707380298238</v>
+        <v>0.9059048171544656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9500932204268833</v>
+        <v>0.9487519230515935</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1016</v>
@@ -4579,19 +4579,19 @@
         <v>864534</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852776</v>
+        <v>852039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>875383</v>
+        <v>874583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9538583047723724</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9408852075008148</v>
+        <v>0.9400715797239541</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9658279174914628</v>
+        <v>0.9649449826804897</v>
       </c>
     </row>
     <row r="9">
@@ -4683,19 +4683,19 @@
         <v>23260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15340</v>
+        <v>15496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35459</v>
+        <v>35735</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04931981342839469</v>
+        <v>0.04931981342839468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03252740549173563</v>
+        <v>0.03285776563819354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07518647240361312</v>
+        <v>0.07577274400655547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4704,19 +4704,19 @@
         <v>19267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13523</v>
+        <v>13594</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27142</v>
+        <v>26860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1027597892080465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07212191987764643</v>
+        <v>0.072504211672918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1447613086542004</v>
+        <v>0.143256957727475</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -4725,19 +4725,19 @@
         <v>42527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32086</v>
+        <v>31370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55772</v>
+        <v>55241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06452192774738889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04868073073643302</v>
+        <v>0.04759443654711502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08461728315724808</v>
+        <v>0.08381157006149843</v>
       </c>
     </row>
     <row r="11">
@@ -4754,19 +4754,19 @@
         <v>448352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436153</v>
+        <v>435877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456272</v>
+        <v>456116</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9506801865716054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9248135275963868</v>
+        <v>0.9242272559934447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9674725945082643</v>
+        <v>0.9671422343618064</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -4775,19 +4775,19 @@
         <v>168230</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160355</v>
+        <v>160637</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173974</v>
+        <v>173903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8972402107919536</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8552386913457996</v>
+        <v>0.8567430422725248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9278780801223536</v>
+        <v>0.927495788327082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>721</v>
@@ -4796,19 +4796,19 @@
         <v>616582</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>603337</v>
+        <v>603868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>627023</v>
+        <v>627739</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.935478072252611</v>
+        <v>0.9354780722526113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9153827168427517</v>
+        <v>0.9161884299385016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9513192692635668</v>
+        <v>0.9524055634528851</v>
       </c>
     </row>
     <row r="12">
@@ -4900,19 +4900,19 @@
         <v>50288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37749</v>
+        <v>37649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64309</v>
+        <v>66957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04443027331880708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03335140762571735</v>
+        <v>0.03326326129359782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05681818244314919</v>
+        <v>0.05915755662315634</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -4921,19 +4921,19 @@
         <v>65755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53855</v>
+        <v>53611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78172</v>
+        <v>79577</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07635159198107183</v>
+        <v>0.0763515919810718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06253431518090111</v>
+        <v>0.06225108055858225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09076963331636687</v>
+        <v>0.09240076285508293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -4942,19 +4942,19 @@
         <v>116043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98638</v>
+        <v>97944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137561</v>
+        <v>137645</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05822367848801695</v>
+        <v>0.05822367848801696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04949083502176459</v>
+        <v>0.04914275182778841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06902010281115037</v>
+        <v>0.06906251530108418</v>
       </c>
     </row>
     <row r="14">
@@ -4971,19 +4971,19 @@
         <v>1081555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1067534</v>
+        <v>1064886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1094094</v>
+        <v>1094194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9555697266811929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9431818175568506</v>
+        <v>0.9408424433768432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9666485923742827</v>
+        <v>0.9667367387064019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1133</v>
@@ -4992,19 +4992,19 @@
         <v>795456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>783039</v>
+        <v>781634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>807356</v>
+        <v>807600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9236484080189282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.909230366683633</v>
+        <v>0.9075992371449176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9374656848190989</v>
+        <v>0.9377489194414185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2199</v>
@@ -5013,19 +5013,19 @@
         <v>1877011</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1855493</v>
+        <v>1855409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1894416</v>
+        <v>1895110</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9417763215119829</v>
+        <v>0.9417763215119832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9309798971888495</v>
+        <v>0.930937484698916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9505091649782356</v>
+        <v>0.9508572481722116</v>
       </c>
     </row>
     <row r="15">
@@ -5117,19 +5117,19 @@
         <v>24445</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16417</v>
+        <v>15594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37144</v>
+        <v>35259</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04303907788420501</v>
+        <v>0.043039077884205</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02890444728023021</v>
+        <v>0.0274552980187843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06539804749690055</v>
+        <v>0.06207995769556092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -5138,19 +5138,19 @@
         <v>84651</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71361</v>
+        <v>71470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98374</v>
+        <v>98146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1018846271430511</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08588975134351089</v>
+        <v>0.08602043681457511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1184016938869809</v>
+        <v>0.1181271330275571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>167</v>
@@ -5159,19 +5159,19 @@
         <v>109096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92596</v>
+        <v>92429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126736</v>
+        <v>126521</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07799142986930396</v>
+        <v>0.07799142986930395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06619584627030563</v>
+        <v>0.06607642592235653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09060261279145855</v>
+        <v>0.090448884047167</v>
       </c>
     </row>
     <row r="17">
@@ -5188,19 +5188,19 @@
         <v>543519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>530820</v>
+        <v>532705</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>551547</v>
+        <v>552370</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9569609221157952</v>
+        <v>0.956960922115795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9346019525030996</v>
+        <v>0.9379200423044397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9710955527197698</v>
+        <v>0.9725447019812157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1149</v>
@@ -5209,19 +5209,19 @@
         <v>746199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>732476</v>
+        <v>732704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>759489</v>
+        <v>759380</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8981153728569489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8815983061130189</v>
+        <v>0.8818728669724428</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9141102486564887</v>
+        <v>0.9139795631854252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1670</v>
@@ -5230,19 +5230,19 @@
         <v>1289718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1272078</v>
+        <v>1272293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1306218</v>
+        <v>1306385</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9220085701306961</v>
+        <v>0.9220085701306959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9093973872085417</v>
+        <v>0.909551115952833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9338041537296945</v>
+        <v>0.9339235740776435</v>
       </c>
     </row>
     <row r="18">
@@ -5334,19 +5334,19 @@
         <v>10606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4803</v>
+        <v>4589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24573</v>
+        <v>22732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04470758721624866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02024717389381033</v>
+        <v>0.01934454553706337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1035826132376948</v>
+        <v>0.09582175376390491</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -5355,19 +5355,19 @@
         <v>66996</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53659</v>
+        <v>53673</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83006</v>
+        <v>82508</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07935287516240136</v>
+        <v>0.07935287516240139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06355548818004939</v>
+        <v>0.06357226868896179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09831534009248133</v>
+        <v>0.09772524826956058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -5376,19 +5376,19 @@
         <v>77602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62915</v>
+        <v>61966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95762</v>
+        <v>94863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07175346947531079</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05817362586387723</v>
+        <v>0.05729614768506413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08854500751861169</v>
+        <v>0.08771383537245055</v>
       </c>
     </row>
     <row r="20">
@@ -5405,19 +5405,19 @@
         <v>226622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212655</v>
+        <v>214496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232425</v>
+        <v>232639</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9552924127837514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8964173867623055</v>
+        <v>0.9041782462360957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9797528261061896</v>
+        <v>0.9806554544629368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1061</v>
@@ -5426,19 +5426,19 @@
         <v>777285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>761275</v>
+        <v>761773</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>790622</v>
+        <v>790608</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9206471248375986</v>
+        <v>0.9206471248375987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9016846599075191</v>
+        <v>0.9022747517304394</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9364445118199508</v>
+        <v>0.9364277313110381</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1165</v>
@@ -5447,19 +5447,19 @@
         <v>1003907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>985747</v>
+        <v>986646</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1018594</v>
+        <v>1019543</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9282465305246895</v>
+        <v>0.9282465305246894</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9114549924813882</v>
+        <v>0.9122861646275495</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9418263741361228</v>
+        <v>0.9427038523149358</v>
       </c>
     </row>
     <row r="21">
@@ -5551,19 +5551,19 @@
         <v>131635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109977</v>
+        <v>109965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159896</v>
+        <v>157237</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0382384426369208</v>
+        <v>0.03823844263692079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03194719084455059</v>
+        <v>0.03194349894338347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04644795017295254</v>
+        <v>0.04567560633144115</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -5572,19 +5572,19 @@
         <v>292206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264826</v>
+        <v>266070</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>316777</v>
+        <v>322353</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08037800115259236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07284653017531335</v>
+        <v>0.07318865256144727</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08713684804902265</v>
+        <v>0.08867070193542191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>578</v>
@@ -5593,19 +5593,19 @@
         <v>423841</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>389918</v>
+        <v>387637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>461542</v>
+        <v>460485</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05988250807883556</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0550897983454622</v>
+        <v>0.05476745269864931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06520911842070723</v>
+        <v>0.06505990628904194</v>
       </c>
     </row>
     <row r="23">
@@ -5622,19 +5622,19 @@
         <v>3310841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3282580</v>
+        <v>3285239</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3332499</v>
+        <v>3332511</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9617615573630793</v>
+        <v>0.9617615573630792</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9535520498270481</v>
+        <v>0.9543243936685589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.96805280915545</v>
+        <v>0.9680565010566164</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4799</v>
@@ -5643,19 +5643,19 @@
         <v>3343187</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3318616</v>
+        <v>3313040</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3370567</v>
+        <v>3369323</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9196219988474077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9128631519509772</v>
+        <v>0.9113292980645781</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9271534698246867</v>
+        <v>0.9268113474385535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7966</v>
@@ -5664,19 +5664,19 @@
         <v>6654028</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6616327</v>
+        <v>6617384</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6687951</v>
+        <v>6690232</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9401174919211644</v>
+        <v>0.9401174919211646</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9347908815792927</v>
+        <v>0.9349400937109579</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9449102016545379</v>
+        <v>0.9452325473013509</v>
       </c>
     </row>
     <row r="24">
